--- a/test cases generation/alu/action list.xlsx
+++ b/test cases generation/alu/action list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDA60F-8254-4F1C-826C-411615225297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF28AD-1E3F-4957-8627-45A41C070E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,15 +392,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -437,22 +443,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -465,6 +585,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,29 +905,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="6" customWidth="1"/>
-    <col min="4" max="8" width="4.77734375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="4.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="6" customWidth="1"/>
-    <col min="12" max="16" width="4.77734375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="9.77734375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="75.33203125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="23.77734375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="23.77734375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="3" customWidth="1"/>
+    <col min="12" max="16" width="4.77734375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="75.33203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="23.77734375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="23.77734375" style="5" customWidth="1"/>
     <col min="24" max="24" width="14.77734375" style="1"/>
-    <col min="25" max="16384" width="14.77734375" style="5"/>
+    <col min="25" max="16384" width="14.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,39 +937,39 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="2" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="8" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
@@ -825,37 +981,37 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="X2" s="1" t="str">
@@ -870,37 +1026,37 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>83</v>
       </c>
       <c r="X3" s="1" t="str">
@@ -915,37 +1071,37 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="5" t="s">
         <v>87</v>
       </c>
       <c r="X4" s="1" t="str">
@@ -960,46 +1116,46 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="s">
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="1" t="str">
@@ -1008,271 +1164,367 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="str">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>BEQ</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1" t="str">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>1</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BNE</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="str">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BLT</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1" t="str">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BGE</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="str">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>1</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BLTU</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>1</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1" t="str">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
+        <v>1</v>
+      </c>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>BGEU</v>
       </c>
@@ -1284,46 +1536,46 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8" t="s">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="W12" s="5" t="s">
         <v>87</v>
       </c>
       <c r="X12" s="1" t="str">
@@ -1338,46 +1590,46 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>1</v>
-      </c>
-      <c r="U13" s="8" t="s">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="W13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X13" s="1" t="str">
@@ -1392,46 +1644,46 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="8" t="s">
+      <c r="W14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X14" s="1" t="str">
@@ -1446,46 +1698,46 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0</v>
-      </c>
-      <c r="U15" s="8" t="s">
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X15" s="1" t="str">
@@ -1500,46 +1752,46 @@
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <v>1</v>
-      </c>
-      <c r="U16" s="8" t="s">
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X16" s="1" t="str">
@@ -1554,46 +1806,46 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8" t="s">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X17" s="1" t="str">
@@ -1608,46 +1860,46 @@
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-      <c r="U18" s="8" t="s">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X18" s="1" t="str">
@@ -1662,46 +1914,46 @@
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>1</v>
-      </c>
-      <c r="T19" s="8">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8" t="s">
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X19" s="1" t="str">
@@ -1716,46 +1968,46 @@
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8" t="s">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X20" s="1" t="str">
@@ -1770,46 +2022,46 @@
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>1</v>
-      </c>
-      <c r="T21" s="8">
-        <v>0</v>
-      </c>
-      <c r="U21" s="8" t="s">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W21" s="8" t="s">
+      <c r="W21" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X21" s="1" t="str">
@@ -1824,46 +2076,46 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1</v>
-      </c>
-      <c r="T22" s="8">
-        <v>1</v>
-      </c>
-      <c r="U22" s="8" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="8" t="s">
+      <c r="W22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X22" s="1" t="str">
@@ -1878,46 +2130,46 @@
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="6">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8" t="s">
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X23" s="1" t="str">
@@ -1932,46 +2184,46 @@
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="6">
-        <v>1</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="8">
-        <v>0</v>
-      </c>
-      <c r="U24" s="8" t="s">
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W24" s="8" t="s">
+      <c r="W24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X24" s="1" t="str">
@@ -1986,46 +2238,46 @@
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="6">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="8">
-        <v>1</v>
-      </c>
-      <c r="U25" s="8" t="s">
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="8" t="s">
+      <c r="W25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X25" s="1" t="str">
@@ -2040,46 +2292,46 @@
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
-        <v>1</v>
-      </c>
-      <c r="U26" s="8" t="s">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="8" t="s">
+      <c r="W26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X26" s="1" t="str">
@@ -2094,67 +2346,67 @@
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>1</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>1</v>
-      </c>
-      <c r="U27" s="8" t="s">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>1</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="8" t="s">
+      <c r="W27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X27" s="1" t="str">
@@ -2169,67 +2421,67 @@
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>1</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>1</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="8" t="s">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="X28" s="1" t="str">
@@ -2244,67 +2496,67 @@
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
-        <v>0</v>
-      </c>
-      <c r="U29" s="8" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="8" t="s">
+      <c r="W29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="X29" s="1" t="str">
@@ -2319,67 +2571,67 @@
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>1</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8" t="s">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="6" t="s">
+      <c r="V30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="8" t="s">
+      <c r="W30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="X30" s="1" t="str">
@@ -2394,67 +2646,67 @@
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>1</v>
-      </c>
-      <c r="U31" s="8" t="s">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <v>1</v>
+      </c>
+      <c r="U31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="8" t="s">
+      <c r="W31" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X31" s="1" t="str">
@@ -2469,67 +2721,67 @@
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <v>1</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8" t="s">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="W32" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X32" s="1" t="str">
@@ -2544,67 +2796,67 @@
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
-      </c>
-      <c r="T33" s="8">
-        <v>1</v>
-      </c>
-      <c r="U33" s="8" t="s">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>1</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X33" s="1" t="str">
@@ -2619,67 +2871,67 @@
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
-        <v>1</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8" t="s">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X34" s="1" t="str">
@@ -2694,67 +2946,67 @@
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>1</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="T35" s="8">
-        <v>1</v>
-      </c>
-      <c r="U35" s="8" t="s">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <v>1</v>
+      </c>
+      <c r="U35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="W35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X35" s="1" t="str">
@@ -2769,67 +3021,67 @@
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
-        <v>1</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>1</v>
-      </c>
-      <c r="U36" s="8" t="s">
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>1</v>
+      </c>
+      <c r="U36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="V36" s="6" t="s">
+      <c r="V36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="8" t="s">
+      <c r="W36" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X36" s="1" t="str">
@@ -2844,67 +3096,67 @@
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>1</v>
-      </c>
-      <c r="S37" s="7">
-        <v>1</v>
-      </c>
-      <c r="T37" s="8">
-        <v>0</v>
-      </c>
-      <c r="U37" s="8" t="s">
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="V37" s="6" t="s">
+      <c r="V37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="W37" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X37" s="1" t="str">
@@ -2919,67 +3171,67 @@
       <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6">
-        <v>1</v>
-      </c>
-      <c r="S38" s="7">
-        <v>1</v>
-      </c>
-      <c r="T38" s="8">
-        <v>1</v>
-      </c>
-      <c r="U38" s="8" t="s">
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5">
+        <v>1</v>
+      </c>
+      <c r="U38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="V38" s="6" t="s">
+      <c r="V38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="8" t="s">
+      <c r="W38" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X38" s="1" t="str">
@@ -2994,67 +3246,67 @@
       <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8">
-        <v>0</v>
-      </c>
-      <c r="U39" s="8" t="s">
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V39" s="6" t="s">
+      <c r="V39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="8" t="s">
+      <c r="W39" s="5" t="s">
         <v>79</v>
       </c>
       <c r="X39" s="1" t="str">
@@ -3069,41 +3321,41 @@
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="2" t="s">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="4"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="7"/>
       <c r="X40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ECALL</v>
@@ -3116,41 +3368,41 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="2" t="s">
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
       <c r="X41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EBREAK</v>
@@ -3278,14 +3530,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="R41:T41"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="R41:T41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test cases generation/alu/action list.xlsx
+++ b/test cases generation/alu/action list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF28AD-1E3F-4957-8627-45A41C070E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC3D9E-3851-4A88-9808-7D717EBCE541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,9 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o = (signed(i1) &lt; i2)</t>
-  </si>
-  <si>
     <t>(unsigned(i1) &lt; unsigned(i2))</t>
   </si>
   <si>
@@ -363,6 +360,10 @@
   </si>
   <si>
     <t>sign_ext(imm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o = (signed(i1) &lt; signed(i2))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,13 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +616,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,7 +910,7 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C21" sqref="C21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,7 +927,7 @@
     <col min="18" max="18" width="9.77734375" style="3" customWidth="1"/>
     <col min="19" max="19" width="9.77734375" style="4" customWidth="1"/>
     <col min="20" max="20" width="9.77734375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="75.33203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="63.5546875" style="5" customWidth="1"/>
     <col min="22" max="22" width="23.77734375" style="3" customWidth="1"/>
     <col min="23" max="23" width="23.77734375" style="5" customWidth="1"/>
     <col min="24" max="24" width="14.77734375" style="1"/>
@@ -937,39 +941,39 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="6" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18"/>
       <c r="U1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="7"/>
+      <c r="W1" s="18"/>
       <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>56</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1156,7 +1160,7 @@
         <v>58</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1167,59 +1171,59 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" s="11" t="str">
+      <c r="W6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>BEQ</v>
       </c>
@@ -1228,59 +1232,59 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>1</v>
-      </c>
-      <c r="U7" s="13" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>1</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" s="14" t="str">
+      <c r="W7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BNE</v>
       </c>
@@ -1289,59 +1293,59 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13">
-        <v>1</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="X8" s="14" t="str">
+      <c r="W8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BLT</v>
       </c>
@@ -1350,59 +1354,59 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13">
-        <v>1</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
-        <v>1</v>
-      </c>
-      <c r="U9" s="13" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="X9" s="14" t="str">
+      <c r="W9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BGE</v>
       </c>
@@ -1411,59 +1415,59 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13">
-        <v>1</v>
-      </c>
-      <c r="S10" s="13">
-        <v>1</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="14" t="str">
+      <c r="W10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>BLTU</v>
       </c>
@@ -1472,59 +1476,59 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16">
-        <v>1</v>
-      </c>
-      <c r="S11" s="16">
-        <v>1</v>
-      </c>
-      <c r="T11" s="16">
-        <v>1</v>
-      </c>
-      <c r="U11" s="16" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+      <c r="S11" s="14">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X11" s="17" t="str">
+      <c r="W11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BGEU</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>58</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1629,8 +1633,8 @@
       <c r="V13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="5" t="s">
-        <v>54</v>
+      <c r="W13" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1683,8 +1687,8 @@
       <c r="V14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="5" t="s">
-        <v>54</v>
+      <c r="W14" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1737,8 +1741,8 @@
       <c r="V15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="5" t="s">
-        <v>54</v>
+      <c r="W15" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1791,8 +1795,8 @@
       <c r="V16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="5" t="s">
-        <v>54</v>
+      <c r="W16" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1845,8 +1849,8 @@
       <c r="V17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="5" t="s">
-        <v>54</v>
+      <c r="W17" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1899,8 +1903,8 @@
       <c r="V18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="5" t="s">
-        <v>54</v>
+      <c r="W18" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1953,8 +1957,8 @@
       <c r="V19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>54</v>
+      <c r="W19" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2007,8 +2011,8 @@
       <c r="V20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="5" t="s">
-        <v>54</v>
+      <c r="W20" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2056,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W21" s="5" t="s">
-        <v>54</v>
+      <c r="W21" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2110,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="5" t="s">
-        <v>54</v>
+      <c r="W22" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2164,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>54</v>
+      <c r="W23" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2223,8 +2227,8 @@
       <c r="V24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W24" s="5" t="s">
-        <v>54</v>
+      <c r="W24" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2277,8 +2281,8 @@
       <c r="V25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="5" t="s">
-        <v>54</v>
+      <c r="W25" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3342,20 +3346,20 @@
       <c r="I40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="6" t="s">
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="7"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18"/>
       <c r="X40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ECALL</v>
@@ -3389,20 +3393,20 @@
       <c r="I41" s="5">
         <v>1</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="6" t="s">
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
       <c r="X41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EBREAK</v>
